--- a/Draft_Pick_Spreadsheets/Draft_pick_export.xlsx
+++ b/Draft_Pick_Spreadsheets/Draft_pick_export.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,71 +462,71 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mike Trout</t>
+          <t>Fernando Tatis Jr.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>SS</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.800000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Christian Yelich</t>
+          <t>Trea Turner</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LF/RF</t>
+          <t>SS</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>100</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.5</v>
+        <v>81.8</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Gerrit Cole</t>
+          <t>Matt Olson</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>101</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.2</v>
+        <v>94.3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jacob deGrom</t>
+          <t>Zack Wheeler</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -538,20 +538,2080 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Wil Myers</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1B/LF/CF/RF</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Eddie Rosario</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LF/RF</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>125</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Dylan Bundy</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Dinelson Lamet</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>136.3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Will Smith</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>110</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Tommy Pham</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LF/DH</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>130.3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Joe Musgrove</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>113.9</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Alec Bohm</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1B/3B</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Trevor Bauer</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Jeff McNeil</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2B/3B/LF/RF</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Christian Yelich</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LF/RF</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Jose Ramirez</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Freddie Freeman</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Manny Machado</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3B/SS</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Francisco Lindor</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Bryce Harper</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>RF/DH</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Cody Bellinger</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1B/CF/RF</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Yu Darvish</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ronald Acuna Jr.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>LF/CF/RF</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Walker Buehler</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DJ LeMahieu</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1B/2B/3B</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Lucas Giolito</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Max Scherzer</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Bo Bichette</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ozzie Albies</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Clayton Kershaw</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Adalberto Mondesi</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Aaron Nola</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Jack Flaherty</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Mookie Betts</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>CF/RF</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Nolan Arenado</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Xander Bogaerts</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Jose Abreu</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Alex Bregman</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3B/SS</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Anthony Rendon</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Rafael Devers</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Kyle Tucker</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>LF/RF/DH</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>40</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Luis Robert</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Corey Seager</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Starling Marte</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Trevor Story</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>George Springer</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>CF/RF</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Luis Castillo</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Brandon Woodruff</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Blake Snell</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>38</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Eloy Jimenez</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>LF</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Marcell Ozuna</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>LF/DH</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>41</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Tim Anderson</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Vladimir Guerrero Jr.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1B/3B/DH</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>41</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Whit Merrifield</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2B/CF/RF</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Lance Lynn</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B57" t="n">
+        <v>4</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Juan Soto</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>LF/RF</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Pete Alonso</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1B/DH</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Josh Hader</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>RP</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Eugenio Suarez</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Aaron Judge</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Javier Baez</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Randy Arozarena</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>LF</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Ketel Marte</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2B/SS/CF</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Yordan Alvarez</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>LF/DH</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>J.T. Realmuto</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Tyler Glasnow</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>5</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Mike Trout</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Luke Voit</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Stephen Strasburg</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Zac Gallen</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Paul Goldschmidt</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Kenta Maeda</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>SP/RP</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Liam Hendriks</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>RP</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Yoan Moncada</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Gleyber Torres</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2B/SS</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Corbin Burnes</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>SP/RP</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Hyun Jin Ryu</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Jacob deGrom</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Kyle Hendricks</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Nelson Cruz</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>DH/Util</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>84.3</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Cavan Biggio</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2B/3B/RF</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>84</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Anthony Rizzo</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Nick Castellanos</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>LF/RF</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Brandon Lowe</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1B/2B/RF</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Matt Chapman</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Keston Hiura</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2B/DH</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Charlie Blackmon</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>J.D. Martinez</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>LF/RF/DH</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Gerrit Cole</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Michael Conforto</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>CF/RF</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Carlos Carrasco</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>SP/RP</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Teoscar Hernandez</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>LF/CF/RF</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Jose Altuve</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Sonny Gray</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Lourdes Gurriel Jr.</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2B/LF</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Trent Grisham</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>LF/CF/RF</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Giancarlo Stanton</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>LF/DH</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
         <v>10.5</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>Shane Bieber</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SP</t>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Zach Plesac</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>108.3</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Kris Bryant</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>3B/LF/RF</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>106</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>James Karinchak</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>RP</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Aroldis Chapman</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>RP</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Jose Berrios</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Max Muncy</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1B/2B/3B</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Salvador Perez</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Zack Greinke</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>122.8</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Kenley Jansen</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>RP</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Austin Meadows</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>LF/RF</t>
         </is>
       </c>
     </row>
